--- a/2022/Realme/Others/Shop Wise Sales Report/Natore Shop wise sales report  April-2022.xlsx
+++ b/2022/Realme/Others/Shop Wise Sales Report/Natore Shop wise sales report  April-2022.xlsx
@@ -940,16 +940,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,7 +1260,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J56" sqref="J56"/>
+      <selection pane="topRight" activeCell="AD60" sqref="AD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1527,7 @@
       <c r="AL2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="54" t="s">
+      <c r="AM2" s="52" t="s">
         <v>116</v>
       </c>
       <c r="AN2" s="37"/>
@@ -1647,7 +1647,7 @@
       <c r="AL3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AM3" s="55" t="s">
+      <c r="AM3" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN3" s="16"/>
@@ -1767,7 +1767,7 @@
       <c r="AL4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AM4" s="55" t="s">
+      <c r="AM4" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN4" s="16"/>
@@ -1887,7 +1887,7 @@
       <c r="AL5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AM5" s="55" t="s">
+      <c r="AM5" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN5" s="16"/>
@@ -2007,7 +2007,7 @@
       <c r="AL6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AM6" s="55" t="s">
+      <c r="AM6" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN6" s="16"/>
@@ -2127,7 +2127,7 @@
       <c r="AL7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AM7" s="55" t="s">
+      <c r="AM7" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN7" s="16"/>
@@ -2247,7 +2247,7 @@
       <c r="AL8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AM8" s="55" t="s">
+      <c r="AM8" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN8" s="16"/>
@@ -2367,7 +2367,7 @@
       <c r="AL9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AM9" s="55" t="s">
+      <c r="AM9" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN9" s="16"/>
@@ -2487,7 +2487,7 @@
       <c r="AL10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM10" s="55" t="s">
+      <c r="AM10" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN10" s="18"/>
@@ -2607,7 +2607,7 @@
       <c r="AL11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM11" s="55" t="s">
+      <c r="AM11" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN11" s="18"/>
@@ -2727,7 +2727,7 @@
       <c r="AL12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM12" s="55" t="s">
+      <c r="AM12" s="53" t="s">
         <v>116</v>
       </c>
       <c r="AN12" s="18"/>
@@ -2847,7 +2847,7 @@
       <c r="AL13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM13" s="55" t="s">
+      <c r="AM13" s="53" t="s">
         <v>116</v>
       </c>
       <c r="AN13" s="18"/>
@@ -2967,7 +2967,7 @@
       <c r="AL14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM14" s="55" t="s">
+      <c r="AM14" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN14" s="18"/>
@@ -3087,7 +3087,7 @@
       <c r="AL15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM15" s="55" t="s">
+      <c r="AM15" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN15" s="18"/>
@@ -3207,7 +3207,7 @@
       <c r="AL16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM16" s="55" t="s">
+      <c r="AM16" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN16" s="18"/>
@@ -3327,7 +3327,7 @@
       <c r="AL17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM17" s="55" t="s">
+      <c r="AM17" s="53" t="s">
         <v>116</v>
       </c>
       <c r="AN17" s="18"/>
@@ -3447,7 +3447,7 @@
       <c r="AL18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM18" s="55" t="s">
+      <c r="AM18" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN18" s="18"/>
@@ -3567,7 +3567,7 @@
       <c r="AL19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM19" s="55" t="s">
+      <c r="AM19" s="53" t="s">
         <v>116</v>
       </c>
       <c r="AN19" s="18"/>
@@ -3687,7 +3687,7 @@
       <c r="AL20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM20" s="55" t="s">
+      <c r="AM20" s="53" t="s">
         <v>116</v>
       </c>
       <c r="AN20" s="18"/>
@@ -3807,7 +3807,7 @@
       <c r="AL21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM21" s="55" t="s">
+      <c r="AM21" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN21" s="18"/>
@@ -3927,7 +3927,7 @@
       <c r="AL22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM22" s="55" t="s">
+      <c r="AM22" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN22" s="18"/>
@@ -4047,7 +4047,7 @@
       <c r="AL23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM23" s="55" t="s">
+      <c r="AM23" s="53" t="s">
         <v>116</v>
       </c>
       <c r="AN23" s="18"/>
@@ -4167,7 +4167,7 @@
       <c r="AL24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM24" s="55" t="s">
+      <c r="AM24" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN24" s="18"/>
@@ -4287,7 +4287,7 @@
       <c r="AL25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM25" s="55" t="s">
+      <c r="AM25" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN25" s="18"/>
@@ -4407,7 +4407,7 @@
       <c r="AL26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM26" s="55" t="s">
+      <c r="AM26" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN26" s="18"/>
@@ -4527,7 +4527,7 @@
       <c r="AL27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM27" s="55" t="s">
+      <c r="AM27" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN27" s="18"/>
@@ -4647,7 +4647,7 @@
       <c r="AL28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM28" s="55" t="s">
+      <c r="AM28" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN28" s="18"/>
@@ -4767,7 +4767,7 @@
       <c r="AL29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM29" s="55" t="s">
+      <c r="AM29" s="53" t="s">
         <v>116</v>
       </c>
       <c r="AN29" s="18"/>
@@ -4887,7 +4887,7 @@
       <c r="AL30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM30" s="55" t="s">
+      <c r="AM30" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN30" s="18"/>
@@ -5007,7 +5007,7 @@
       <c r="AL31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM31" s="55" t="s">
+      <c r="AM31" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN31" s="18"/>
@@ -5127,7 +5127,7 @@
       <c r="AL32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM32" s="55" t="s">
+      <c r="AM32" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN32" s="18"/>
@@ -5247,7 +5247,7 @@
       <c r="AL33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM33" s="55" t="s">
+      <c r="AM33" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN33" s="18"/>
@@ -5367,7 +5367,7 @@
       <c r="AL34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM34" s="55" t="s">
+      <c r="AM34" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN34" s="18"/>
@@ -5487,7 +5487,7 @@
       <c r="AL35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM35" s="55" t="s">
+      <c r="AM35" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN35" s="18"/>
@@ -5607,7 +5607,7 @@
       <c r="AL36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM36" s="55" t="s">
+      <c r="AM36" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN36" s="18"/>
@@ -5727,7 +5727,7 @@
       <c r="AL37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM37" s="55" t="s">
+      <c r="AM37" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN37" s="18"/>
@@ -5847,7 +5847,7 @@
       <c r="AL38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM38" s="55" t="s">
+      <c r="AM38" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN38" s="18"/>
@@ -5967,7 +5967,7 @@
       <c r="AL39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM39" s="55" t="s">
+      <c r="AM39" s="53" t="s">
         <v>117</v>
       </c>
       <c r="AN39" s="18"/>
@@ -6087,7 +6087,7 @@
       <c r="AL40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM40" s="55" t="s">
+      <c r="AM40" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN40" s="18"/>
@@ -6207,7 +6207,7 @@
       <c r="AL41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM41" s="55" t="s">
+      <c r="AM41" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN41" s="18"/>
@@ -6319,7 +6319,7 @@
         <v>15</v>
       </c>
       <c r="AL42" s="1"/>
-      <c r="AM42" s="55"/>
+      <c r="AM42" s="53"/>
       <c r="AN42" s="18"/>
     </row>
     <row r="43" spans="1:40" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6437,7 +6437,7 @@
       <c r="AL43" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AM43" s="55" t="s">
+      <c r="AM43" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN43" s="20"/>
@@ -6557,7 +6557,7 @@
       <c r="AL44" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AM44" s="55" t="s">
+      <c r="AM44" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN44" s="20"/>
@@ -6677,7 +6677,7 @@
       <c r="AL45" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AM45" s="55" t="s">
+      <c r="AM45" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN45" s="20"/>
@@ -6797,7 +6797,7 @@
       <c r="AL46" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AM46" s="55" t="s">
+      <c r="AM46" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN46" s="20"/>
@@ -6917,7 +6917,7 @@
       <c r="AL47" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AM47" s="55" t="s">
+      <c r="AM47" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN47" s="20"/>
@@ -7037,7 +7037,7 @@
       <c r="AL48" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AM48" s="55" t="s">
+      <c r="AM48" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN48" s="20"/>
@@ -7157,7 +7157,7 @@
       <c r="AL49" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AM49" s="55" t="s">
+      <c r="AM49" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN49" s="20"/>
@@ -7277,7 +7277,7 @@
       <c r="AL50" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AM50" s="55" t="s">
+      <c r="AM50" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN50" s="20"/>
@@ -7397,7 +7397,7 @@
       <c r="AL51" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AM51" s="55" t="s">
+      <c r="AM51" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN51" s="20"/>
@@ -7517,19 +7517,19 @@
       <c r="AL52" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AM52" s="55" t="s">
+      <c r="AM52" s="53" t="s">
         <v>118</v>
       </c>
       <c r="AN52" s="20"/>
     </row>
     <row r="53" spans="1:40" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="21">
         <v>841</v>
       </c>
@@ -7633,27 +7633,27 @@
         <v>411</v>
       </c>
       <c r="AF53" s="27">
-        <f>SUM(AF2:AF52)</f>
+        <f t="shared" ref="AF53:AK53" si="4">SUM(AF2:AF52)</f>
         <v>380</v>
       </c>
       <c r="AG53" s="27">
-        <f>SUM(AG2:AG52)</f>
+        <f t="shared" si="4"/>
         <v>356</v>
       </c>
       <c r="AH53" s="28">
-        <f>SUM(AH2:AH52)</f>
+        <f t="shared" si="4"/>
         <v>1040</v>
       </c>
       <c r="AI53" s="28">
-        <f>SUM(AI2:AI52)</f>
+        <f t="shared" si="4"/>
         <v>938</v>
       </c>
       <c r="AJ53" s="28">
-        <f>SUM(AJ2:AJ52)</f>
+        <f t="shared" si="4"/>
         <v>670</v>
       </c>
       <c r="AK53" s="28">
-        <f>SUM(AK2:AK52)</f>
+        <f t="shared" si="4"/>
         <v>623</v>
       </c>
       <c r="AL53" s="29"/>
